--- a/Data/Forbrug loebende priser 2019.xlsx
+++ b/Data/Forbrug loebende priser 2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1295">
   <si>
     <t>10. decil</t>
   </si>
@@ -3906,6 +3906,9 @@
   </si>
   <si>
     <t>1111011 Ris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forbrug </t>
   </si>
 </sst>
 </file>
@@ -3953,11 +3956,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4240,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1264" workbookViewId="0">
-      <selection activeCell="M1285" sqref="A1285:XFD1293"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4253,38 +4256,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Data/Forbrug loebende priser 2019.xlsx
+++ b/Data/Forbrug loebende priser 2019.xlsx
@@ -3908,7 +3908,7 @@
     <t>1111011 Ris</t>
   </si>
   <si>
-    <t xml:space="preserve">Forbrug </t>
+    <t>Forbrug</t>
   </si>
 </sst>
 </file>
@@ -4243,9 +4243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
